--- a/data/s_vals/2022/singer_brady.xlsx
+++ b/data/s_vals/2022/singer_brady.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.526609452869423</v>
+        <v>16.84135478251809</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03698960639585658</v>
+        <v>1.292064567892659e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01782408538546121</v>
+        <v>6.240767534437808e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E3" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.229760366037164</v>
+        <v>1155.427527473998</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/singer_brady.xlsx
+++ b/data/s_vals/2022/singer_brady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>16.84135478251809</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>1155.427527473998</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/singer_brady.xlsx
+++ b/data/s_vals/2022/singer_brady.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>16.84135478251809</v>
+        <v>20.15985084044064</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.292064567892659e-05</v>
+        <v>1.19090754144846e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>6.240767534437808e-05</v>
+        <v>6.708468553440206e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E3" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1155.427527473998</v>
+        <v>2816.282694118204</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
